--- a/Excels/Fleet para hacer 15Feb2023.xlsx
+++ b/Excels/Fleet para hacer 15Feb2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\fleetdeliveryapp\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC00694-42DB-451D-9F55-F12290A19FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C372DAA-1F40-4907-A8BC-39AC2B0A5206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2639AAA9-EF48-4802-B9C3-B8E7B51FC93B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>use obrasOT</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>ORDER BY FECHACUMPLIDA DESC</t>
+  </si>
+  <si>
+    <t>SELECT IDREGISTRO, RECUPIDJOBCARD, CLIENTE, Marcado</t>
+  </si>
+  <si>
+    <t>WHERE  (UserID = 29) AND (PROYECTOMODULO = 'otro')</t>
   </si>
 </sst>
 </file>
@@ -127,12 +133,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -160,6 +172,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -544,7 +557,7 @@
   <dimension ref="I1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:I20"/>
+      <selection activeCell="I10" sqref="I10:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +595,21 @@
     <row r="8" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="9:9" x14ac:dyDescent="0.3">
